--- a/tutorial/smallYeastBad2.xlsx
+++ b/tutorial/smallYeastBad2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>alpha-D-glucose[c] + ATP[c] =&gt; ADP[c] + alpha-D-glucose 6-phosphate[c]</t>
   </si>
   <si>
-    <t>(YFR053C or YGL253W or YCL040W)</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>alpha-D-glucose 6-phosphate[c] &lt;=&gt; beta-D-fructofuranose 6-phosphate[c]</t>
   </si>
   <si>
-    <t>YBR196C</t>
-  </si>
-  <si>
     <t>PFK</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>ATP[c] + beta-D-fructofuranose 6-phosphate[c] =&gt; ADP[c] + 2 beta-D-fructofuranose 1,6-bisphosphate[c]</t>
   </si>
   <si>
-    <t>(YGR240C or YMR205C)</t>
-  </si>
-  <si>
     <t>FBP</t>
   </si>
   <si>
@@ -195,27 +186,18 @@
     <t>beta-D-fructofuranose 1,6-bisphosphate[c] =&gt; 2 beta-D-fructofuranose 6-phosphate[c] + phosphate[c]</t>
   </si>
   <si>
-    <t>YLR377C</t>
-  </si>
-  <si>
     <t>FBA</t>
   </si>
   <si>
     <t>Fructose-bisphosphate aldolase</t>
   </si>
   <si>
-    <t>YKL060C</t>
-  </si>
-  <si>
     <t>TPI</t>
   </si>
   <si>
     <t>Triosephosphate isomerase</t>
   </si>
   <si>
-    <t>YDR050C</t>
-  </si>
-  <si>
     <t>GLD</t>
   </si>
   <si>
@@ -225,9 +207,6 @@
     <t>D-glyceraldehyde 3-phosphate[c] + NAD(+)[c] + phosphate[c] &lt;=&gt; 3-phospho-D-glyceroyl phosphate[c] + NADH[c]</t>
   </si>
   <si>
-    <t>(YJL052W or YJR009C or YGR192C)</t>
-  </si>
-  <si>
     <t>PGK</t>
   </si>
   <si>
@@ -237,9 +216,6 @@
     <t>3-phospho-D-glyceroyl phosphate[c] + ADP[c] &lt;=&gt; 3-phospho-D-glycerate[c] + ATP[c]</t>
   </si>
   <si>
-    <t>YCR012W</t>
-  </si>
-  <si>
     <t>GPM</t>
   </si>
   <si>
@@ -249,9 +225,6 @@
     <t>3-phospho-D-glycerate[c] &lt;=&gt; 2-phospho-D-glycerate[c]</t>
   </si>
   <si>
-    <t>(YKL152C or YDL021W or YOL056W)</t>
-  </si>
-  <si>
     <t>ENO</t>
   </si>
   <si>
@@ -261,9 +234,6 @@
     <t>2-phospho-D-glycerate[c] &lt;=&gt; phosphoenolpyruvate[c]</t>
   </si>
   <si>
-    <t>(YGR254W or YHR174W)</t>
-  </si>
-  <si>
     <t>PYK</t>
   </si>
   <si>
@@ -273,18 +243,12 @@
     <t>ADP[c] + phosphoenolpyruvate[c] =&gt; ATP[c] + pyruvate[c]</t>
   </si>
   <si>
-    <t>YOR347C</t>
-  </si>
-  <si>
     <t>ZWF</t>
   </si>
   <si>
     <t>Glucose-6-phosphate 1-dehydrogenase</t>
   </si>
   <si>
-    <t>YNL241C</t>
-  </si>
-  <si>
     <t>PGL</t>
   </si>
   <si>
@@ -294,9 +258,6 @@
     <t>6-O-phosphono-D-glucono-1,5-lactone[c] =&gt; 6-phospho-D-gluconate[c]</t>
   </si>
   <si>
-    <t>(YNR034W or YCR073W-A or YHR163W or YGR248W)</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
@@ -306,9 +267,6 @@
     <t>6-phospho-D-gluconate[c] + NADP(+)[c] =&gt; CO2[c] + D-ribulose 5-phosphate[c] + NADPH[c]</t>
   </si>
   <si>
-    <t>(YGR256W or YHR183W)</t>
-  </si>
-  <si>
     <t>RPI</t>
   </si>
   <si>
@@ -318,9 +276,6 @@
     <t>D-ribulose 5-phosphate[c] &lt;=&gt; D-ribose 5-phosphate[c]</t>
   </si>
   <si>
-    <t>YOR095C</t>
-  </si>
-  <si>
     <t>RPE</t>
   </si>
   <si>
@@ -330,9 +285,6 @@
     <t>D-ribulose 5-phosphate[c] &lt;=&gt; D-xylulose 5-phosphate[c]</t>
   </si>
   <si>
-    <t>YJL121C</t>
-  </si>
-  <si>
     <t>TKI1TKI2a</t>
   </si>
   <si>
@@ -342,9 +294,6 @@
     <t>D-ribose 5-phosphate[c] + D-xylulose 5-phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c]</t>
   </si>
   <si>
-    <t>(YBR117C or YPR074C)</t>
-  </si>
-  <si>
     <t>TAL1</t>
   </si>
   <si>
@@ -354,9 +303,6 @@
     <t>D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c] &lt;=&gt; beta-D-fructofuranose 6-phosphate[c] + D-erythrose 4-phosphate[c]</t>
   </si>
   <si>
-    <t>YLR354C</t>
-  </si>
-  <si>
     <t>TKI1TKI2b</t>
   </si>
   <si>
@@ -372,9 +318,6 @@
     <t>glycerone phosphate[c] + NADH[c] =&gt; glycerol monophosphate[c] + NAD(+)[c]</t>
   </si>
   <si>
-    <t>(YDL022W or YOL059W)</t>
-  </si>
-  <si>
     <t>GPP</t>
   </si>
   <si>
@@ -384,9 +327,6 @@
     <t>glycerol monophosphate[c] =&gt; glycerol[c] + phosphate[c]</t>
   </si>
   <si>
-    <t>(YIL053W or YER062C)</t>
-  </si>
-  <si>
     <t>PDC</t>
   </si>
   <si>
@@ -396,9 +336,6 @@
     <t>pyruvate[c] =&gt; acetaldehyde[c]</t>
   </si>
   <si>
-    <t>(YGR087C or YLR134W or YLR044C)</t>
-  </si>
-  <si>
     <t>PDC_2</t>
   </si>
   <si>
@@ -417,9 +354,6 @@
     <t>acetaldehyde[c] + NADH[c] =&gt; 2 ethanol[c] + NAD(+)[c]</t>
   </si>
   <si>
-    <t>(YGL256W or YMR303C or YOL086C)</t>
-  </si>
-  <si>
     <t>ADH2</t>
   </si>
   <si>
@@ -438,9 +372,6 @@
     <t>acetaldehyde[c] + NADP(+)[c] =&gt; acetate[c] + NADPH[c]</t>
   </si>
   <si>
-    <t>YPL061W</t>
-  </si>
-  <si>
     <t>ACS</t>
   </si>
   <si>
@@ -450,9 +381,6 @@
     <t>acetate[c] + 2 ATP[c] + coenzyme A[c] =&gt; acetyl-CoA[c] + 2 ADP[c] + 2 phosphate[c]</t>
   </si>
   <si>
-    <t>(YAL054C or YLR153C)</t>
-  </si>
-  <si>
     <t>PDH</t>
   </si>
   <si>
@@ -462,9 +390,6 @@
     <t>coenzyme A[m] + NAD(+)[m] + pyruvate[c] =&gt; acetyl-CoA[m] + CO2[m] + NADH[m]</t>
   </si>
   <si>
-    <t>YER178W</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -477,9 +402,6 @@
     <t>ATP[c] + CO2[c] + pyruvate[c] =&gt; ADP[c] + oxaloacetate[m] + phosphate[c]</t>
   </si>
   <si>
-    <t>(YGL062W or YBR218C)</t>
-  </si>
-  <si>
     <t>CIT</t>
   </si>
   <si>
@@ -489,9 +411,6 @@
     <t>acetyl-CoA[m] + oxaloacetate[m] =&gt; citrate[m] + coenzyme A[m]</t>
   </si>
   <si>
-    <t>(YNR001C or YPR001W)</t>
-  </si>
-  <si>
     <t>ACO</t>
   </si>
   <si>
@@ -501,9 +420,6 @@
     <t>citrate[m] &lt;=&gt; isocitrate[m]</t>
   </si>
   <si>
-    <t>YLR304C</t>
-  </si>
-  <si>
     <t>IDP1</t>
   </si>
   <si>
@@ -513,9 +429,6 @@
     <t>isocitrate[m] + NADP(+)[m] =&gt; 2-oxoglutarate[m] + CO2[m] + NADPH[m]</t>
   </si>
   <si>
-    <t>YDL066W</t>
-  </si>
-  <si>
     <t>KGD1KGD2</t>
   </si>
   <si>
@@ -525,9 +438,6 @@
     <t>2-oxoglutarate[m] + coenzyme A[m] + NAD(+)[m] =&gt; CO2[m] + NADH[m] + succinyl-CoA[m]</t>
   </si>
   <si>
-    <t>YIL125W</t>
-  </si>
-  <si>
     <t>LSC1LSC2</t>
   </si>
   <si>
@@ -537,9 +447,6 @@
     <t>ADP[c] + phosphate[c] + succinyl-CoA[m] &lt;=&gt; ATP[c] + coenzyme A[m] + succinate[m]</t>
   </si>
   <si>
-    <t>(YGR244C or YOR142W)</t>
-  </si>
-  <si>
     <t>SDH</t>
   </si>
   <si>
@@ -549,9 +456,6 @@
     <t>FAD[m] + succinate[m] =&gt; FADH2[m] + fumarate[m]</t>
   </si>
   <si>
-    <t>YKL141W</t>
-  </si>
-  <si>
     <t>FRDS2</t>
   </si>
   <si>
@@ -561,9 +465,6 @@
     <t>FADH2[m] + fumarate[m] =&gt; FAD[m] + succinate[m]</t>
   </si>
   <si>
-    <t>YJR051W</t>
-  </si>
-  <si>
     <t>FUM1</t>
   </si>
   <si>
@@ -573,9 +474,6 @@
     <t>fumarate[m] &lt;=&gt; (S)-malate[m]</t>
   </si>
   <si>
-    <t>YPL262W</t>
-  </si>
-  <si>
     <t>MDH1</t>
   </si>
   <si>
@@ -585,9 +483,6 @@
     <t>(S)-malate[m] + NAD(+)[m] &lt;=&gt; NADH[m] + oxaloacetate[m]</t>
   </si>
   <si>
-    <t>YKL085W</t>
-  </si>
-  <si>
     <t>MAE1</t>
   </si>
   <si>
@@ -597,9 +492,6 @@
     <t>(S)-malate[m] + NADP(+)[m] =&gt; CO2[c] + NADPH[m] + pyruvate[c]</t>
   </si>
   <si>
-    <t>YKL029C</t>
-  </si>
-  <si>
     <t>PCK</t>
   </si>
   <si>
@@ -609,9 +501,6 @@
     <t>ATP[c] + oxaloacetate[m] =&gt; ADP[c] + CO2[c] + phosphoenolpyruvate[c]</t>
   </si>
   <si>
-    <t>YKR097W</t>
-  </si>
-  <si>
     <t>CAT2</t>
   </si>
   <si>
@@ -621,9 +510,6 @@
     <t>acetyl-CoA[c] + coenzyme A[m] =&gt; acetyl-CoA[m] + coenzyme A[c]</t>
   </si>
   <si>
-    <t>YML042W</t>
-  </si>
-  <si>
     <t>CO2TRANS</t>
   </si>
   <si>
@@ -1560,123 +1446,6 @@
     <t>SHORT NAME</t>
   </si>
   <si>
-    <t>YAL054C</t>
-  </si>
-  <si>
-    <t>YBR117C</t>
-  </si>
-  <si>
-    <t>YBR218C</t>
-  </si>
-  <si>
-    <t>YCL040W</t>
-  </si>
-  <si>
-    <t>YCR073W-A</t>
-  </si>
-  <si>
-    <t>YDL021W</t>
-  </si>
-  <si>
-    <t>YDL022W</t>
-  </si>
-  <si>
-    <t>YER062C</t>
-  </si>
-  <si>
-    <t>YFR053C</t>
-  </si>
-  <si>
-    <t>YGL062W</t>
-  </si>
-  <si>
-    <t>YGL253W</t>
-  </si>
-  <si>
-    <t>YGL256W</t>
-  </si>
-  <si>
-    <t>YGR087C</t>
-  </si>
-  <si>
-    <t>YGR192C</t>
-  </si>
-  <si>
-    <t>YGR240C</t>
-  </si>
-  <si>
-    <t>YGR244C</t>
-  </si>
-  <si>
-    <t>YGR248W</t>
-  </si>
-  <si>
-    <t>YGR254W</t>
-  </si>
-  <si>
-    <t>YGR256W</t>
-  </si>
-  <si>
-    <t>YHR163W</t>
-  </si>
-  <si>
-    <t>YHR174W</t>
-  </si>
-  <si>
-    <t>YHR183W</t>
-  </si>
-  <si>
-    <t>YIL053W</t>
-  </si>
-  <si>
-    <t>YJL052W</t>
-  </si>
-  <si>
-    <t>YJR009C</t>
-  </si>
-  <si>
-    <t>YKL152C</t>
-  </si>
-  <si>
-    <t>YLR044C</t>
-  </si>
-  <si>
-    <t>YLR134W</t>
-  </si>
-  <si>
-    <t>YLR153C</t>
-  </si>
-  <si>
-    <t>YMR205C</t>
-  </si>
-  <si>
-    <t>YMR303C</t>
-  </si>
-  <si>
-    <t>YNR001C</t>
-  </si>
-  <si>
-    <t>YNR034W</t>
-  </si>
-  <si>
-    <t>YOL056W</t>
-  </si>
-  <si>
-    <t>YOL059W</t>
-  </si>
-  <si>
-    <t>YOL086C</t>
-  </si>
-  <si>
-    <t>YOR142W</t>
-  </si>
-  <si>
-    <t>YPR001W</t>
-  </si>
-  <si>
-    <t>YPR074C</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -1722,342 +1491,159 @@
     <t>For use in the RAVEN workshop</t>
   </si>
   <si>
-    <t>sgd/S000000050;uniprot/Q01574</t>
-  </si>
-  <si>
     <t>ACS1</t>
   </si>
   <si>
-    <t>sgd/S000000321;uniprot/P33315</t>
-  </si>
-  <si>
     <t>TKL2</t>
   </si>
   <si>
-    <t>sgd/S000000400;uniprot/P12709</t>
-  </si>
-  <si>
     <t>PGI1</t>
   </si>
   <si>
-    <t>sgd/S000000422;uniprot/P32327</t>
-  </si>
-  <si>
     <t>PYC2</t>
   </si>
   <si>
-    <t>sgd/S000000545;uniprot/P17709</t>
-  </si>
-  <si>
     <t>GLK1</t>
   </si>
   <si>
-    <t>sgd/S000000605;uniprot/P00560</t>
-  </si>
-  <si>
     <t>PGK1</t>
   </si>
   <si>
-    <t>sgd/S000000718;uniprot/P37262</t>
-  </si>
-  <si>
     <t>SOL2</t>
   </si>
   <si>
-    <t>sgd/S000002179;uniprot/Q12008</t>
-  </si>
-  <si>
     <t>GPM2</t>
   </si>
   <si>
-    <t>sgd/S000002180;uniprot/Q00055</t>
-  </si>
-  <si>
     <t>GPD1</t>
   </si>
   <si>
-    <t>sgd/S000002224;uniprot/P21954</t>
-  </si>
-  <si>
-    <t>sgd/S000002457;uniprot/P00942</t>
-  </si>
-  <si>
     <t>TPI1</t>
   </si>
   <si>
-    <t>sgd/S000000864;uniprot/P40106</t>
-  </si>
-  <si>
     <t>HOR2</t>
   </si>
   <si>
-    <t>sgd/S000000980;uniprot/P16387</t>
-  </si>
-  <si>
     <t>PDA1</t>
   </si>
   <si>
-    <t>sgd/S000001949;uniprot/P04806</t>
-  </si>
-  <si>
     <t>HXK1</t>
   </si>
   <si>
-    <t>sgd/S000003030;uniprot/P11154</t>
-  </si>
-  <si>
     <t>PYC1</t>
   </si>
   <si>
-    <t>sgd/S000003222;uniprot/P04807</t>
-  </si>
-  <si>
     <t>HXK2</t>
   </si>
   <si>
-    <t>sgd/S000003225;uniprot/P10127</t>
-  </si>
-  <si>
     <t>ADH4</t>
   </si>
   <si>
-    <t>sgd/S000003319;uniprot/P26263</t>
-  </si>
-  <si>
     <t>PDC6</t>
   </si>
   <si>
-    <t>sgd/S000003424;uniprot/P00359</t>
-  </si>
-  <si>
     <t>TDH3</t>
   </si>
   <si>
-    <t>sgd/S000003472;uniprot/P16861</t>
-  </si>
-  <si>
     <t>PFK1</t>
   </si>
   <si>
-    <t>sgd/S000003476;uniprot/P53312</t>
-  </si>
-  <si>
     <t>LSC2</t>
   </si>
   <si>
-    <t>sgd/S000003480;uniprot/P53315</t>
-  </si>
-  <si>
     <t>SOL4</t>
   </si>
   <si>
-    <t>sgd/S000003486;uniprot/P00924</t>
-  </si>
-  <si>
     <t>ENO1</t>
   </si>
   <si>
-    <t>sgd/S000003488;uniprot/P53319</t>
-  </si>
-  <si>
     <t>GND2</t>
   </si>
   <si>
-    <t>sgd/S000001206;uniprot/P38858</t>
-  </si>
-  <si>
     <t>SOL3</t>
   </si>
   <si>
-    <t>sgd/S000001217;uniprot/P00925</t>
-  </si>
-  <si>
     <t>ENO2</t>
   </si>
   <si>
-    <t>sgd/S000001226;uniprot/P38720</t>
-  </si>
-  <si>
     <t>GND1</t>
   </si>
   <si>
-    <t>sgd/S000001315;uniprot/P41277</t>
-  </si>
-  <si>
     <t>RHR2</t>
   </si>
   <si>
-    <t>sgd/S000001387;uniprot/P20967</t>
-  </si>
-  <si>
     <t>KGD1</t>
   </si>
   <si>
-    <t>sgd/S000003588;uniprot/P00360</t>
-  </si>
-  <si>
     <t>TDH1</t>
   </si>
   <si>
-    <t>sgd/S000003657;uniprot/P46969</t>
-  </si>
-  <si>
     <t>RPE1</t>
   </si>
   <si>
-    <t>sgd/S000003769;uniprot/P00358</t>
-  </si>
-  <si>
     <t>TDH2</t>
   </si>
   <si>
-    <t>sgd/S000003812;uniprot/P21375</t>
-  </si>
-  <si>
     <t>OSM1</t>
   </si>
   <si>
-    <t>sgd/S000001512;uniprot/P36013</t>
-  </si>
-  <si>
-    <t>sgd/S000001543;uniprot/P14540</t>
-  </si>
-  <si>
     <t>FBA1</t>
   </si>
   <si>
-    <t>sgd/S000001568;uniprot/P17505</t>
-  </si>
-  <si>
-    <t>sgd/S000001624;uniprot/P33421</t>
-  </si>
-  <si>
     <t>SDH3</t>
   </si>
   <si>
-    <t>sgd/S000001635;uniprot/P00950</t>
-  </si>
-  <si>
     <t>GPM1</t>
   </si>
   <si>
-    <t>sgd/S000001805;uniprot/P10963</t>
-  </si>
-  <si>
     <t>PCK1</t>
   </si>
   <si>
-    <t>sgd/S000004034;uniprot/P06169</t>
-  </si>
-  <si>
     <t>PDC1</t>
   </si>
   <si>
-    <t>sgd/S000004124;uniprot/P16467</t>
-  </si>
-  <si>
     <t>PDC5</t>
   </si>
   <si>
-    <t>sgd/S000004143;uniprot/P52910</t>
-  </si>
-  <si>
     <t>ACS2</t>
   </si>
   <si>
-    <t>sgd/S000004295;uniprot/P19414</t>
-  </si>
-  <si>
     <t>ACO1</t>
   </si>
   <si>
-    <t>sgd/S000004346;uniprot/P15019</t>
-  </si>
-  <si>
-    <t>sgd/S000004369;uniprot/P09201</t>
-  </si>
-  <si>
     <t>FBP1</t>
   </si>
   <si>
-    <t>sgd/S000004506;uniprot/P32796</t>
-  </si>
-  <si>
-    <t>sgd/S000004818;uniprot/P16862</t>
-  </si>
-  <si>
     <t>PFK2</t>
   </si>
   <si>
-    <t>sgd/S000004918;uniprot/P00331</t>
-  </si>
-  <si>
-    <t>sgd/S000005185;uniprot/P11412</t>
-  </si>
-  <si>
     <t>ZWF1</t>
   </si>
   <si>
-    <t>sgd/S000005284;uniprot/P00890</t>
-  </si>
-  <si>
     <t>CIT1</t>
   </si>
   <si>
-    <t>sgd/S000005317;uniprot/P50278</t>
-  </si>
-  <si>
     <t>SOL1</t>
   </si>
   <si>
-    <t>sgd/S000005417;uniprot/Q12326</t>
-  </si>
-  <si>
     <t>GPM3</t>
   </si>
   <si>
-    <t>sgd/S000005420;uniprot/P41911</t>
-  </si>
-  <si>
     <t>GPD2</t>
   </si>
   <si>
-    <t>sgd/S000005446;uniprot/P00330</t>
-  </si>
-  <si>
-    <t>sgd/S000005621;uniprot/Q12189</t>
-  </si>
-  <si>
     <t>RKI1</t>
   </si>
   <si>
-    <t>sgd/S000005668;uniprot/P53598</t>
-  </si>
-  <si>
     <t>LSC1</t>
   </si>
   <si>
-    <t>sgd/S000005874;uniprot/P52489</t>
-  </si>
-  <si>
     <t>PYK2</t>
   </si>
   <si>
-    <t>sgd/S000005982;uniprot/P54115</t>
-  </si>
-  <si>
-    <t>sgd/S000006183;uniprot/P08417</t>
-  </si>
-  <si>
-    <t>sgd/S000006205;uniprot/P43635</t>
-  </si>
-  <si>
     <t>CIT3</t>
   </si>
   <si>
-    <t>sgd/S000006278;uniprot/P23254</t>
-  </si>
-  <si>
     <t>TKL1</t>
   </si>
   <si>
@@ -2110,6 +1696,420 @@
   </si>
   <si>
     <t>dihydroxyacetone phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c]</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>g6</t>
+  </si>
+  <si>
+    <t>g7</t>
+  </si>
+  <si>
+    <t>g8</t>
+  </si>
+  <si>
+    <t>g9</t>
+  </si>
+  <si>
+    <t>g10</t>
+  </si>
+  <si>
+    <t>g11</t>
+  </si>
+  <si>
+    <t>g12</t>
+  </si>
+  <si>
+    <t>g13</t>
+  </si>
+  <si>
+    <t>g14</t>
+  </si>
+  <si>
+    <t>g15</t>
+  </si>
+  <si>
+    <t>g16</t>
+  </si>
+  <si>
+    <t>g17</t>
+  </si>
+  <si>
+    <t>g18</t>
+  </si>
+  <si>
+    <t>g19</t>
+  </si>
+  <si>
+    <t>g20</t>
+  </si>
+  <si>
+    <t>g21</t>
+  </si>
+  <si>
+    <t>g22</t>
+  </si>
+  <si>
+    <t>g23</t>
+  </si>
+  <si>
+    <t>g24</t>
+  </si>
+  <si>
+    <t>g25</t>
+  </si>
+  <si>
+    <t>g26</t>
+  </si>
+  <si>
+    <t>g27</t>
+  </si>
+  <si>
+    <t>g28</t>
+  </si>
+  <si>
+    <t>g29</t>
+  </si>
+  <si>
+    <t>g30</t>
+  </si>
+  <si>
+    <t>g31</t>
+  </si>
+  <si>
+    <t>g32</t>
+  </si>
+  <si>
+    <t>g33</t>
+  </si>
+  <si>
+    <t>g34</t>
+  </si>
+  <si>
+    <t>g35</t>
+  </si>
+  <si>
+    <t>g36</t>
+  </si>
+  <si>
+    <t>g37</t>
+  </si>
+  <si>
+    <t>g38</t>
+  </si>
+  <si>
+    <t>g39</t>
+  </si>
+  <si>
+    <t>g40</t>
+  </si>
+  <si>
+    <t>g41</t>
+  </si>
+  <si>
+    <t>g42</t>
+  </si>
+  <si>
+    <t>g43</t>
+  </si>
+  <si>
+    <t>g44</t>
+  </si>
+  <si>
+    <t>g45</t>
+  </si>
+  <si>
+    <t>g46</t>
+  </si>
+  <si>
+    <t>g47</t>
+  </si>
+  <si>
+    <t>g48</t>
+  </si>
+  <si>
+    <t>g49</t>
+  </si>
+  <si>
+    <t>g50</t>
+  </si>
+  <si>
+    <t>g51</t>
+  </si>
+  <si>
+    <t>g52</t>
+  </si>
+  <si>
+    <t>g53</t>
+  </si>
+  <si>
+    <t>g54</t>
+  </si>
+  <si>
+    <t>g55</t>
+  </si>
+  <si>
+    <t>g56</t>
+  </si>
+  <si>
+    <t>g57</t>
+  </si>
+  <si>
+    <t>g58</t>
+  </si>
+  <si>
+    <t>g59</t>
+  </si>
+  <si>
+    <t>g60</t>
+  </si>
+  <si>
+    <t>g61</t>
+  </si>
+  <si>
+    <t>(g14 or g16 or g5)</t>
+  </si>
+  <si>
+    <t>(g20 or g47)</t>
+  </si>
+  <si>
+    <t>(g30 or g32 or g19)</t>
+  </si>
+  <si>
+    <t>(g38 or g8 or g52)</t>
+  </si>
+  <si>
+    <t>(g23 or g26)</t>
+  </si>
+  <si>
+    <t>(g51 or g7 or g25 or g22)</t>
+  </si>
+  <si>
+    <t>(g24 or g27)</t>
+  </si>
+  <si>
+    <t>(g2 or g61)</t>
+  </si>
+  <si>
+    <t>(g9 or g53)</t>
+  </si>
+  <si>
+    <t>(g28 or g12)</t>
+  </si>
+  <si>
+    <t>(g18 or g41 or g40)</t>
+  </si>
+  <si>
+    <t>(g17 or g48 or g54)</t>
+  </si>
+  <si>
+    <t>(g1 or g42)</t>
+  </si>
+  <si>
+    <t>(g15 or g4)</t>
+  </si>
+  <si>
+    <t>(g50 or g60)</t>
+  </si>
+  <si>
+    <t>(g21 or g56)</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YAL054C;sgd/S000000050;uniprot/Q01574</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YBR117C;sgd/S000000321;uniprot/P33315</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YBR196C;sgd/S000000400;uniprot/P12709</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YBR218C;sgd/S000000422;uniprot/P32327</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YCL040W;sgd/S000000545;uniprot/P17709</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YCR012W;sgd/S000000605;uniprot/P00560</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YCR073W-A;sgd/S000000718;uniprot/P37262</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDL021W;sgd/S000002179;uniprot/Q12008</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDL022W;sgd/S000002180;uniprot/Q00055</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDL066W;sgd/S000002224;uniprot/P21954</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDR050C;sgd/S000002457;uniprot/P00942</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YER062C;sgd/S000000864;uniprot/P40106</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YER178W;sgd/S000000980;uniprot/P16387</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YFR053C;sgd/S000001949;uniprot/P04806</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGL062W;sgd/S000003030;uniprot/P11154</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGL253W;sgd/S000003222;uniprot/P04807</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGL256W;sgd/S000003225;uniprot/P10127</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR087C;sgd/S000003319;uniprot/P26263</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR192C;sgd/S000003424;uniprot/P00359</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR240C;sgd/S000003472;uniprot/P16861</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR244C;sgd/S000003476;uniprot/P53312</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR248W;sgd/S000003480;uniprot/P53315</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR254W;sgd/S000003486;uniprot/P00924</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR256W;sgd/S000003488;uniprot/P53319</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YHR163W;sgd/S000001206;uniprot/P38858</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YHR174W;sgd/S000001217;uniprot/P00925</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YHR183W;sgd/S000001226;uniprot/P38720</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YIL053W;sgd/S000001315;uniprot/P41277</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YIL125W;sgd/S000001387;uniprot/P20967</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJL052W;sgd/S000003588;uniprot/P00360</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJL121C;sgd/S000003657;uniprot/P46969</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJR009C;sgd/S000003769;uniprot/P00358</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJR051W;sgd/S000003812;uniprot/P21375</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL029C;sgd/S000001512;uniprot/P36013</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL060C;sgd/S000001543;uniprot/P14540</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL085W;sgd/S000001568;uniprot/P17505</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL141W;sgd/S000001624;uniprot/P33421</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL152C;sgd/S000001635;uniprot/P00950</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKR097W;sgd/S000001805;uniprot/P10963</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR044C;sgd/S000004034;uniprot/P06169</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR134W;sgd/S000004124;uniprot/P16467</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR153C;sgd/S000004143;uniprot/P52910</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR304C;sgd/S000004295;uniprot/P19414</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR354C;sgd/S000004346;uniprot/P15019</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR377C;sgd/S000004369;uniprot/P09201</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YML042W;sgd/S000004506;uniprot/P32796</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YMR205C;sgd/S000004818;uniprot/P16862</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YMR303C;sgd/S000004918;uniprot/P00331</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YNL241C;sgd/S000005185;uniprot/P11412</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YNR001C;sgd/S000005284;uniprot/P00890</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YNR034W;sgd/S000005317;uniprot/P50278</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOL056W;sgd/S000005417;uniprot/Q12326</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOL059W;sgd/S000005420;uniprot/P41911</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOL086C;sgd/S000005446;uniprot/P00330</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOR095C;sgd/S000005621;uniprot/Q12189</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOR142W;sgd/S000005668;uniprot/P53598</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOR347C;sgd/S000005874;uniprot/P52489</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPL061W;sgd/S000005982;uniprot/P54115</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPL262W;sgd/S000006183;uniprot/P08417</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPR001W;sgd/S000006205;uniprot/P43635</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPR074C;sgd/S000006278;uniprot/P23254</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>676</v>
+        <v>538</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>677</v>
+        <v>539</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -2851,707 +2851,707 @@
         <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>616</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>557</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>617</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>599</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>691</v>
+        <v>553</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>589</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>692</v>
+        <v>554</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>565</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>618</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>560</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>72</v>
+        <v>619</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>620</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>80</v>
+        <v>611</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>687</v>
+        <v>549</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>83</v>
+        <v>603</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>87</v>
+        <v>621</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>91</v>
+        <v>622</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>95</v>
+        <v>609</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>99</v>
+        <v>585</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>103</v>
+        <v>623</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
+        <v>598</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>103</v>
+        <v>623</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>113</v>
+        <v>624</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>117</v>
+        <v>625</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>121</v>
+        <v>626</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>626</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>128</v>
+        <v>627</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>128</v>
+        <v>627</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>135</v>
+        <v>612</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>139</v>
+        <v>628</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>143</v>
+        <v>567</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>148</v>
+        <v>629</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>152</v>
+        <v>630</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>156</v>
+        <v>597</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>164</v>
+        <v>583</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>168</v>
+        <v>631</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>172</v>
+        <v>591</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>176</v>
+        <v>587</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>180</v>
+        <v>613</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>184</v>
+        <v>590</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>188</v>
+        <v>588</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>192</v>
+        <v>593</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>196</v>
+        <v>600</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C55" s="13"/>
       <c r="D55" s="12"/>
       <c r="F55" s="13"/>
@@ -3590,12 +3590,12 @@
       <c r="AM55" s="13"/>
       <c r="AN55" s="13"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>678</v>
+        <v>540</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="12"/>
@@ -3635,77 +3635,77 @@
       <c r="AM56" s="13"/>
       <c r="AN56" s="13"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C62" s="13"/>
       <c r="D62" s="12"/>
       <c r="F62" s="13"/>
@@ -3744,12 +3744,12 @@
       <c r="AM62" s="13"/>
       <c r="AN62" s="13"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="12"/>
@@ -3789,26 +3789,26 @@
       <c r="AM63" s="13"/>
       <c r="AN63" s="13"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>680</v>
+        <v>542</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>681</v>
+        <v>543</v>
       </c>
       <c r="D64" t="s">
-        <v>682</v>
+        <v>544</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
-      <c r="I64" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
@@ -3839,6 +3839,7 @@
       <c r="AL64" s="13"/>
       <c r="AM64" s="13"/>
       <c r="AN64" s="13"/>
+      <c r="AO64" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3876,16 +3877,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>9</v>
@@ -3894,495 +3895,495 @@
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>685</v>
+        <v>547</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>686</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
@@ -4391,913 +4392,913 @@
         <v>19</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="D36" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="D41" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>689</v>
+        <v>551</v>
       </c>
       <c r="C43" t="s">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="G43" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>690</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D55" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5328,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>10</v>
@@ -5342,18 +5343,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5361,7 +5362,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>683</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -5398,864 +5399,864 @@
         <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" t="s">
+        <v>638</v>
+      </c>
+      <c r="D8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D10" t="s">
+        <v>494</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" t="s">
+        <v>641</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" t="s">
+        <v>643</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C14" t="s">
+        <v>644</v>
+      </c>
+      <c r="D14" t="s">
+        <v>497</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C15" t="s">
+        <v>645</v>
+      </c>
+      <c r="D15" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C16" t="s">
+        <v>646</v>
+      </c>
+      <c r="D16" t="s">
+        <v>499</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>570</v>
+      </c>
+      <c r="C17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D17" t="s">
+        <v>500</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>571</v>
+      </c>
+      <c r="C18" t="s">
+        <v>648</v>
+      </c>
+      <c r="D18" t="s">
+        <v>501</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>572</v>
+      </c>
+      <c r="C19" t="s">
+        <v>649</v>
+      </c>
+      <c r="D19" t="s">
+        <v>502</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>573</v>
+      </c>
+      <c r="C20" t="s">
+        <v>650</v>
+      </c>
+      <c r="D20" t="s">
+        <v>503</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>574</v>
+      </c>
+      <c r="C21" t="s">
+        <v>651</v>
+      </c>
+      <c r="D21" t="s">
+        <v>504</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>575</v>
+      </c>
+      <c r="C22" t="s">
+        <v>652</v>
+      </c>
+      <c r="D22" t="s">
+        <v>505</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>576</v>
+      </c>
+      <c r="C23" t="s">
+        <v>653</v>
+      </c>
+      <c r="D23" t="s">
+        <v>506</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>577</v>
+      </c>
+      <c r="C24" t="s">
+        <v>654</v>
+      </c>
+      <c r="D24" t="s">
+        <v>507</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C25" t="s">
+        <v>655</v>
+      </c>
+      <c r="D25" t="s">
+        <v>508</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>579</v>
+      </c>
+      <c r="C26" t="s">
+        <v>656</v>
+      </c>
+      <c r="D26" t="s">
         <v>509</v>
       </c>
-      <c r="C2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>580</v>
+      </c>
+      <c r="C27" t="s">
+        <v>657</v>
+      </c>
+      <c r="D27" t="s">
         <v>510</v>
       </c>
-      <c r="C3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D4" t="s">
-        <v>568</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>581</v>
+      </c>
+      <c r="C28" t="s">
+        <v>658</v>
+      </c>
+      <c r="D28" t="s">
         <v>511</v>
       </c>
-      <c r="C5" t="s">
-        <v>569</v>
-      </c>
-      <c r="D5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>582</v>
+      </c>
+      <c r="C29" t="s">
+        <v>659</v>
+      </c>
+      <c r="D29" t="s">
         <v>512</v>
       </c>
-      <c r="C6" t="s">
-        <v>571</v>
-      </c>
-      <c r="D6" t="s">
-        <v>572</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>573</v>
-      </c>
-      <c r="D7" t="s">
-        <v>574</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>583</v>
+      </c>
+      <c r="C30" t="s">
+        <v>660</v>
+      </c>
+      <c r="D30" t="s">
         <v>513</v>
       </c>
-      <c r="C8" t="s">
-        <v>575</v>
-      </c>
-      <c r="D8" t="s">
-        <v>576</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>584</v>
+      </c>
+      <c r="C31" t="s">
+        <v>661</v>
+      </c>
+      <c r="D31" t="s">
         <v>514</v>
       </c>
-      <c r="C9" t="s">
-        <v>577</v>
-      </c>
-      <c r="D9" t="s">
-        <v>578</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>585</v>
+      </c>
+      <c r="C32" t="s">
+        <v>662</v>
+      </c>
+      <c r="D32" t="s">
         <v>515</v>
       </c>
-      <c r="C10" t="s">
-        <v>579</v>
-      </c>
-      <c r="D10" t="s">
-        <v>580</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>582</v>
-      </c>
-      <c r="D12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>586</v>
+      </c>
+      <c r="C33" t="s">
+        <v>663</v>
+      </c>
+      <c r="D33" t="s">
         <v>516</v>
       </c>
-      <c r="C13" t="s">
-        <v>584</v>
-      </c>
-      <c r="D13" t="s">
-        <v>585</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
-        <v>586</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>587</v>
       </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
+      <c r="C34" t="s">
+        <v>664</v>
+      </c>
+      <c r="D34" t="s">
         <v>517</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>588</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C35" t="s">
+        <v>665</v>
+      </c>
+      <c r="D35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>589</v>
       </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+      <c r="C36" t="s">
+        <v>666</v>
+      </c>
+      <c r="D36" t="s">
         <v>518</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>590</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C37" t="s">
+        <v>667</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>591</v>
       </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
+      <c r="C38" t="s">
+        <v>668</v>
+      </c>
+      <c r="D38" t="s">
         <v>519</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>592</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C39" t="s">
+        <v>669</v>
+      </c>
+      <c r="D39" t="s">
+        <v>520</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>593</v>
       </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C40" t="s">
+        <v>670</v>
+      </c>
+      <c r="D40" t="s">
+        <v>521</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>594</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C41" t="s">
+        <v>671</v>
+      </c>
+      <c r="D41" t="s">
+        <v>522</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>595</v>
       </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C42" t="s">
+        <v>672</v>
+      </c>
+      <c r="D42" t="s">
+        <v>523</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>596</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C43" t="s">
+        <v>673</v>
+      </c>
+      <c r="D43" t="s">
+        <v>524</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>597</v>
       </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C44" t="s">
+        <v>674</v>
+      </c>
+      <c r="D44" t="s">
+        <v>525</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>598</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C45" t="s">
+        <v>675</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>599</v>
       </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C46" t="s">
+        <v>676</v>
+      </c>
+      <c r="D46" t="s">
+        <v>526</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>600</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C47" t="s">
+        <v>677</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>601</v>
       </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C48" t="s">
+        <v>678</v>
+      </c>
+      <c r="D48" t="s">
+        <v>527</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>602</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C49" t="s">
+        <v>679</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>603</v>
       </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C50" t="s">
+        <v>680</v>
+      </c>
+      <c r="D50" t="s">
+        <v>528</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>604</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C51" t="s">
+        <v>681</v>
+      </c>
+      <c r="D51" t="s">
+        <v>529</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>605</v>
       </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C52" t="s">
+        <v>682</v>
+      </c>
+      <c r="D52" t="s">
+        <v>530</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>606</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C53" t="s">
+        <v>683</v>
+      </c>
+      <c r="D53" t="s">
+        <v>531</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>607</v>
       </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C54" t="s">
+        <v>684</v>
+      </c>
+      <c r="D54" t="s">
+        <v>532</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>608</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C55" t="s">
+        <v>685</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>609</v>
       </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C56" t="s">
+        <v>686</v>
+      </c>
+      <c r="D56" t="s">
+        <v>533</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>610</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C57" t="s">
+        <v>687</v>
+      </c>
+      <c r="D57" t="s">
+        <v>534</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>611</v>
       </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C58" t="s">
+        <v>688</v>
+      </c>
+      <c r="D58" t="s">
+        <v>535</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>612</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C59" t="s">
+        <v>689</v>
+      </c>
+      <c r="D59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>613</v>
       </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C60" t="s">
+        <v>690</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>614</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C61" t="s">
+        <v>691</v>
+      </c>
+      <c r="D61" t="s">
+        <v>536</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>615</v>
       </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="C29" t="s">
-        <v>616</v>
-      </c>
-      <c r="D29" t="s">
-        <v>617</v>
-      </c>
-      <c r="E29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" t="s">
-        <v>618</v>
-      </c>
-      <c r="D30" t="s">
-        <v>619</v>
-      </c>
-      <c r="E30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="C31" t="s">
-        <v>620</v>
-      </c>
-      <c r="D31" t="s">
-        <v>621</v>
-      </c>
-      <c r="E31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" t="s">
-        <v>622</v>
-      </c>
-      <c r="D32" t="s">
-        <v>623</v>
-      </c>
-      <c r="E32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="C33" t="s">
-        <v>624</v>
-      </c>
-      <c r="D33" t="s">
-        <v>625</v>
-      </c>
-      <c r="E33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" t="s">
-        <v>626</v>
-      </c>
-      <c r="D34" t="s">
-        <v>627</v>
-      </c>
-      <c r="E34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" t="s">
-        <v>628</v>
-      </c>
-      <c r="D35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>629</v>
-      </c>
-      <c r="D36" t="s">
-        <v>630</v>
-      </c>
-      <c r="E36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" t="s">
-        <v>631</v>
-      </c>
-      <c r="D37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" t="s">
-        <v>632</v>
-      </c>
-      <c r="D38" t="s">
-        <v>633</v>
-      </c>
-      <c r="E38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="C39" t="s">
-        <v>634</v>
-      </c>
-      <c r="D39" t="s">
-        <v>635</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" t="s">
-        <v>636</v>
-      </c>
-      <c r="D40" t="s">
-        <v>637</v>
-      </c>
-      <c r="E40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C41" t="s">
-        <v>638</v>
-      </c>
-      <c r="D41" t="s">
-        <v>639</v>
-      </c>
-      <c r="E41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="C42" t="s">
-        <v>640</v>
-      </c>
-      <c r="D42" t="s">
-        <v>641</v>
-      </c>
-      <c r="E42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="8" t="s">
+      <c r="C62" t="s">
+        <v>692</v>
+      </c>
+      <c r="D62" t="s">
         <v>537</v>
       </c>
-      <c r="C43" t="s">
-        <v>642</v>
-      </c>
-      <c r="D43" t="s">
-        <v>643</v>
-      </c>
-      <c r="E43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" t="s">
-        <v>644</v>
-      </c>
-      <c r="D44" t="s">
-        <v>645</v>
-      </c>
-      <c r="E44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" t="s">
-        <v>646</v>
-      </c>
-      <c r="D45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" t="s">
-        <v>647</v>
-      </c>
-      <c r="D46" t="s">
-        <v>648</v>
-      </c>
-      <c r="E46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" t="s">
-        <v>649</v>
-      </c>
-      <c r="D47" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="C48" t="s">
-        <v>650</v>
-      </c>
-      <c r="D48" t="s">
-        <v>651</v>
-      </c>
-      <c r="E48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="C49" t="s">
-        <v>652</v>
-      </c>
-      <c r="D49" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s">
-        <v>653</v>
-      </c>
-      <c r="D50" t="s">
-        <v>654</v>
-      </c>
-      <c r="E50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C51" t="s">
-        <v>655</v>
-      </c>
-      <c r="D51" t="s">
-        <v>656</v>
-      </c>
-      <c r="E51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="C52" t="s">
-        <v>657</v>
-      </c>
-      <c r="D52" t="s">
-        <v>658</v>
-      </c>
-      <c r="E52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="C53" t="s">
-        <v>659</v>
-      </c>
-      <c r="D53" t="s">
-        <v>660</v>
-      </c>
-      <c r="E53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="C54" t="s">
-        <v>661</v>
-      </c>
-      <c r="D54" t="s">
-        <v>662</v>
-      </c>
-      <c r="E54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="C55" t="s">
-        <v>663</v>
-      </c>
-      <c r="D55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" t="s">
-        <v>664</v>
-      </c>
-      <c r="D56" t="s">
-        <v>665</v>
-      </c>
-      <c r="E56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="C57" t="s">
-        <v>666</v>
-      </c>
-      <c r="D57" t="s">
-        <v>667</v>
-      </c>
-      <c r="E57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" t="s">
-        <v>668</v>
-      </c>
-      <c r="D58" t="s">
-        <v>669</v>
-      </c>
-      <c r="E58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" t="s">
-        <v>670</v>
-      </c>
-      <c r="D59" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" t="s">
-        <v>671</v>
-      </c>
-      <c r="D60" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="C61" t="s">
-        <v>672</v>
-      </c>
-      <c r="D61" t="s">
-        <v>673</v>
-      </c>
-      <c r="E61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="C62" t="s">
-        <v>674</v>
-      </c>
-      <c r="D62" t="s">
-        <v>675</v>
-      </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6292,39 +6293,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>548</v>
+        <v>471</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>550</v>
+        <v>473</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>551</v>
+        <v>474</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>556</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>684</v>
+        <v>546</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="D2" s="8">
         <v>-1000</v>
@@ -6333,19 +6334,19 @@
         <v>1000</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>558</v>
+        <v>481</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>559</v>
+        <v>482</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>560</v>
+        <v>483</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>561</v>
+        <v>484</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>562</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/tutorial/smallYeastBad2.xlsx
+++ b/tutorial/smallYeastBad2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simmarc/Box Sync/3_functions/0_matlab/RAVEN/tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\RAVEN\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4A3DBC11-3072-4E30-A7F8-7D8647D9EEA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460"/>
+    <workbookView xWindow="930" yWindow="435" windowWidth="28800" windowHeight="16455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="GENES" sheetId="4" r:id="rId4"/>
     <sheet name="MODEL" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="691">
   <si>
     <t>#</t>
   </si>
@@ -366,12 +367,6 @@
     <t>ALD6</t>
   </si>
   <si>
-    <t>Aldehyde dehydrogenase</t>
-  </si>
-  <si>
-    <t>acetaldehyde[c] + NADP(+)[c] =&gt; acetate[c] + NADPH[c]</t>
-  </si>
-  <si>
     <t>ACS</t>
   </si>
   <si>
@@ -1698,237 +1693,6 @@
     <t>dihydroxyacetone phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c]</t>
   </si>
   <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>g6</t>
-  </si>
-  <si>
-    <t>g7</t>
-  </si>
-  <si>
-    <t>g8</t>
-  </si>
-  <si>
-    <t>g9</t>
-  </si>
-  <si>
-    <t>g10</t>
-  </si>
-  <si>
-    <t>g11</t>
-  </si>
-  <si>
-    <t>g12</t>
-  </si>
-  <si>
-    <t>g13</t>
-  </si>
-  <si>
-    <t>g14</t>
-  </si>
-  <si>
-    <t>g15</t>
-  </si>
-  <si>
-    <t>g16</t>
-  </si>
-  <si>
-    <t>g17</t>
-  </si>
-  <si>
-    <t>g18</t>
-  </si>
-  <si>
-    <t>g19</t>
-  </si>
-  <si>
-    <t>g20</t>
-  </si>
-  <si>
-    <t>g21</t>
-  </si>
-  <si>
-    <t>g22</t>
-  </si>
-  <si>
-    <t>g23</t>
-  </si>
-  <si>
-    <t>g24</t>
-  </si>
-  <si>
-    <t>g25</t>
-  </si>
-  <si>
-    <t>g26</t>
-  </si>
-  <si>
-    <t>g27</t>
-  </si>
-  <si>
-    <t>g28</t>
-  </si>
-  <si>
-    <t>g29</t>
-  </si>
-  <si>
-    <t>g30</t>
-  </si>
-  <si>
-    <t>g31</t>
-  </si>
-  <si>
-    <t>g32</t>
-  </si>
-  <si>
-    <t>g33</t>
-  </si>
-  <si>
-    <t>g34</t>
-  </si>
-  <si>
-    <t>g35</t>
-  </si>
-  <si>
-    <t>g36</t>
-  </si>
-  <si>
-    <t>g37</t>
-  </si>
-  <si>
-    <t>g38</t>
-  </si>
-  <si>
-    <t>g39</t>
-  </si>
-  <si>
-    <t>g40</t>
-  </si>
-  <si>
-    <t>g41</t>
-  </si>
-  <si>
-    <t>g42</t>
-  </si>
-  <si>
-    <t>g43</t>
-  </si>
-  <si>
-    <t>g44</t>
-  </si>
-  <si>
-    <t>g45</t>
-  </si>
-  <si>
-    <t>g46</t>
-  </si>
-  <si>
-    <t>g47</t>
-  </si>
-  <si>
-    <t>g48</t>
-  </si>
-  <si>
-    <t>g49</t>
-  </si>
-  <si>
-    <t>g50</t>
-  </si>
-  <si>
-    <t>g51</t>
-  </si>
-  <si>
-    <t>g52</t>
-  </si>
-  <si>
-    <t>g53</t>
-  </si>
-  <si>
-    <t>g54</t>
-  </si>
-  <si>
-    <t>g55</t>
-  </si>
-  <si>
-    <t>g56</t>
-  </si>
-  <si>
-    <t>g57</t>
-  </si>
-  <si>
-    <t>g58</t>
-  </si>
-  <si>
-    <t>g59</t>
-  </si>
-  <si>
-    <t>g60</t>
-  </si>
-  <si>
-    <t>g61</t>
-  </si>
-  <si>
-    <t>(g14 or g16 or g5)</t>
-  </si>
-  <si>
-    <t>(g20 or g47)</t>
-  </si>
-  <si>
-    <t>(g30 or g32 or g19)</t>
-  </si>
-  <si>
-    <t>(g38 or g8 or g52)</t>
-  </si>
-  <si>
-    <t>(g23 or g26)</t>
-  </si>
-  <si>
-    <t>(g51 or g7 or g25 or g22)</t>
-  </si>
-  <si>
-    <t>(g24 or g27)</t>
-  </si>
-  <si>
-    <t>(g2 or g61)</t>
-  </si>
-  <si>
-    <t>(g9 or g53)</t>
-  </si>
-  <si>
-    <t>(g28 or g12)</t>
-  </si>
-  <si>
-    <t>(g18 or g41 or g40)</t>
-  </si>
-  <si>
-    <t>(g17 or g48 or g54)</t>
-  </si>
-  <si>
-    <t>(g1 or g42)</t>
-  </si>
-  <si>
-    <t>(g15 or g4)</t>
-  </si>
-  <si>
-    <t>(g50 or g60)</t>
-  </si>
-  <si>
-    <t>(g21 or g56)</t>
-  </si>
-  <si>
     <t>kegg.genes/sce:YAL054C;sgd/S000000050;uniprot/Q01574</t>
   </si>
   <si>
@@ -2110,12 +1874,243 @@
   </si>
   <si>
     <t>kegg.genes/sce:YPR074C;sgd/S000006278;uniprot/P23254</t>
+  </si>
+  <si>
+    <t>YFR053C or YGL253W or YCL040W</t>
+  </si>
+  <si>
+    <t>YBR196C</t>
+  </si>
+  <si>
+    <t>YGR240C or YMR205C</t>
+  </si>
+  <si>
+    <t>YLR377C</t>
+  </si>
+  <si>
+    <t>YKL060C</t>
+  </si>
+  <si>
+    <t>YDR050C</t>
+  </si>
+  <si>
+    <t>YJL052W or YJR009C or YGR192C</t>
+  </si>
+  <si>
+    <t>YCR012W</t>
+  </si>
+  <si>
+    <t>YKL152C or YDL021W or YOL056W</t>
+  </si>
+  <si>
+    <t>YGR254W or YHR174W</t>
+  </si>
+  <si>
+    <t>YOR347C</t>
+  </si>
+  <si>
+    <t>YNL241C</t>
+  </si>
+  <si>
+    <t>YNR034W or YCR073W-A or YHR163W or YGR248W</t>
+  </si>
+  <si>
+    <t>YGR256W or YHR183W</t>
+  </si>
+  <si>
+    <t>YOR095C</t>
+  </si>
+  <si>
+    <t>YJL121C</t>
+  </si>
+  <si>
+    <t>YBR117C or YPR074C</t>
+  </si>
+  <si>
+    <t>YLR354C</t>
+  </si>
+  <si>
+    <t>YDL022W or YOL059W</t>
+  </si>
+  <si>
+    <t>YIL053W or YER062C</t>
+  </si>
+  <si>
+    <t>YGR087C or YLR134W or YLR044C</t>
+  </si>
+  <si>
+    <t>YGL256W or YMR303C or YOL086C</t>
+  </si>
+  <si>
+    <t>YAL054C or YLR153C</t>
+  </si>
+  <si>
+    <t>YER178W</t>
+  </si>
+  <si>
+    <t>YGL062W or YBR218C</t>
+  </si>
+  <si>
+    <t>YNR001C or YPR001W</t>
+  </si>
+  <si>
+    <t>YLR304C</t>
+  </si>
+  <si>
+    <t>YDL066W</t>
+  </si>
+  <si>
+    <t>YIL125W</t>
+  </si>
+  <si>
+    <t>YGR244C or YOR142W</t>
+  </si>
+  <si>
+    <t>YKL141W</t>
+  </si>
+  <si>
+    <t>YJR051W</t>
+  </si>
+  <si>
+    <t>YPL262W</t>
+  </si>
+  <si>
+    <t>YKL085W</t>
+  </si>
+  <si>
+    <t>YKL029C</t>
+  </si>
+  <si>
+    <t>YKR097W</t>
+  </si>
+  <si>
+    <t>YML042W</t>
+  </si>
+  <si>
+    <t>YAL054C</t>
+  </si>
+  <si>
+    <t>YBR117C</t>
+  </si>
+  <si>
+    <t>YBR218C</t>
+  </si>
+  <si>
+    <t>YCL040W</t>
+  </si>
+  <si>
+    <t>YCR073W-A</t>
+  </si>
+  <si>
+    <t>YDL021W</t>
+  </si>
+  <si>
+    <t>YDL022W</t>
+  </si>
+  <si>
+    <t>YER062C</t>
+  </si>
+  <si>
+    <t>YFR053C</t>
+  </si>
+  <si>
+    <t>YGL062W</t>
+  </si>
+  <si>
+    <t>YGL253W</t>
+  </si>
+  <si>
+    <t>YGL256W</t>
+  </si>
+  <si>
+    <t>YGR087C</t>
+  </si>
+  <si>
+    <t>YGR192C</t>
+  </si>
+  <si>
+    <t>YGR240C</t>
+  </si>
+  <si>
+    <t>YGR244C</t>
+  </si>
+  <si>
+    <t>YGR248W</t>
+  </si>
+  <si>
+    <t>YGR254W</t>
+  </si>
+  <si>
+    <t>YGR256W</t>
+  </si>
+  <si>
+    <t>YHR163W</t>
+  </si>
+  <si>
+    <t>YHR174W</t>
+  </si>
+  <si>
+    <t>YHR183W</t>
+  </si>
+  <si>
+    <t>YIL053W</t>
+  </si>
+  <si>
+    <t>YJL052W</t>
+  </si>
+  <si>
+    <t>YJR009C</t>
+  </si>
+  <si>
+    <t>YKL152C</t>
+  </si>
+  <si>
+    <t>YLR044C</t>
+  </si>
+  <si>
+    <t>YLR134W</t>
+  </si>
+  <si>
+    <t>YLR153C</t>
+  </si>
+  <si>
+    <t>YMR205C</t>
+  </si>
+  <si>
+    <t>YMR303C</t>
+  </si>
+  <si>
+    <t>YNR001C</t>
+  </si>
+  <si>
+    <t>YNR034W</t>
+  </si>
+  <si>
+    <t>YOL056W</t>
+  </si>
+  <si>
+    <t>YOL059W</t>
+  </si>
+  <si>
+    <t>YOL086C</t>
+  </si>
+  <si>
+    <t>YOR142W</t>
+  </si>
+  <si>
+    <t>YPL061W</t>
+  </si>
+  <si>
+    <t>YPR001W</t>
+  </si>
+  <si>
+    <t>YPR074C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2128,26 +2123,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2231,6 +2231,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2498,32 +2501,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13:F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="61.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="F2" s="11"/>
@@ -2612,12 +2615,12 @@
       <c r="AM2" s="11"/>
       <c r="AN2" s="11"/>
     </row>
-    <row r="3" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -2657,7 +2660,7 @@
       <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
       <c r="D11" s="12"/>
       <c r="F11" s="13"/>
@@ -2794,12 +2797,12 @@
       <c r="AM11" s="13"/>
       <c r="AN11" s="13"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -2840,7 +2843,7 @@
       <c r="AM12" s="13"/>
       <c r="AN12" s="13"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2850,14 +2853,14 @@
       <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>616</v>
+      <c r="F13" s="13" t="s">
+        <v>614</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
@@ -2867,14 +2870,14 @@
       <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>557</v>
+      <c r="F14" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
@@ -2884,14 +2887,14 @@
       <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>617</v>
+      <c r="F15" s="13" t="s">
+        <v>616</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2901,14 +2904,14 @@
       <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>599</v>
+      <c r="F16" s="13" t="s">
+        <v>617</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2916,16 +2919,16 @@
         <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>589</v>
+        <v>551</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2933,16 +2936,16 @@
         <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>565</v>
+        <v>552</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>619</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
@@ -2952,14 +2955,14 @@
       <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>618</v>
+      <c r="F19" s="13" t="s">
+        <v>620</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2969,14 +2972,14 @@
       <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>560</v>
+      <c r="F20" s="13" t="s">
+        <v>621</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
@@ -2986,14 +2989,14 @@
       <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>619</v>
+      <c r="F21" s="13" t="s">
+        <v>622</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
@@ -3003,14 +3006,14 @@
       <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>620</v>
+      <c r="F22" s="13" t="s">
+        <v>623</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
@@ -3020,14 +3023,14 @@
       <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>611</v>
+      <c r="F23" s="13" t="s">
+        <v>624</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
@@ -3035,16 +3038,16 @@
         <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>603</v>
+        <v>547</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>625</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
@@ -3054,14 +3057,14 @@
       <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>621</v>
+      <c r="F25" s="13" t="s">
+        <v>626</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
@@ -3071,14 +3074,14 @@
       <c r="D26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>622</v>
+      <c r="F26" s="13" t="s">
+        <v>627</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
@@ -3088,14 +3091,14 @@
       <c r="D27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>609</v>
+      <c r="F27" s="13" t="s">
+        <v>628</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
@@ -3105,14 +3108,14 @@
       <c r="D28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>585</v>
+      <c r="F28" s="13" t="s">
+        <v>629</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
@@ -3122,14 +3125,14 @@
       <c r="D29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>623</v>
+      <c r="F29" s="13" t="s">
+        <v>630</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>87</v>
       </c>
@@ -3139,14 +3142,14 @@
       <c r="D30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>598</v>
+      <c r="F30" s="13" t="s">
+        <v>631</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>90</v>
       </c>
@@ -3156,14 +3159,14 @@
       <c r="D31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>623</v>
+      <c r="F31" s="13" t="s">
+        <v>630</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
@@ -3173,14 +3176,14 @@
       <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>624</v>
+      <c r="F32" s="13" t="s">
+        <v>632</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>95</v>
       </c>
@@ -3190,14 +3193,14 @@
       <c r="D33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>625</v>
+      <c r="F33" s="13" t="s">
+        <v>633</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>98</v>
       </c>
@@ -3207,14 +3210,14 @@
       <c r="D34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>626</v>
+      <c r="F34" s="13" t="s">
+        <v>634</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>101</v>
       </c>
@@ -3224,14 +3227,14 @@
       <c r="D35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>626</v>
+      <c r="F35" s="13" t="s">
+        <v>634</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>104</v>
       </c>
@@ -3241,14 +3244,14 @@
       <c r="D36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>627</v>
+      <c r="F36" s="13" t="s">
+        <v>635</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>107</v>
       </c>
@@ -3258,300 +3261,328 @@
       <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>627</v>
+      <c r="F37" s="13" t="s">
+        <v>635</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>612</v>
+        <v>113</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>636</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>628</v>
+        <v>116</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>637</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>629</v>
+        <v>123</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>639</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>630</v>
+        <v>126</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>640</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>597</v>
+        <v>129</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>641</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>564</v>
+        <v>132</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>642</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>583</v>
+        <v>135</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>643</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>631</v>
+        <v>138</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>644</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>591</v>
+        <v>141</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>645</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>587</v>
+        <v>144</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>646</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>613</v>
+        <v>147</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>647</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>590</v>
+        <v>150</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>648</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>588</v>
+        <v>153</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>649</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>593</v>
+        <v>650</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>600</v>
+        <v>159</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="13"/>
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="13"/>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>538</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="12"/>
       <c r="F55" s="13"/>
@@ -3590,122 +3621,122 @@
       <c r="AM55" s="13"/>
       <c r="AN55" s="13"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C61" s="13"/>
+      <c r="D61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13"/>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="13"/>
+      <c r="AI61" s="13"/>
+      <c r="AJ61" s="13"/>
+      <c r="AK61" s="13"/>
+      <c r="AL61" s="13"/>
+      <c r="AM61" s="13"/>
+      <c r="AN61" s="13"/>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="12"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
-      <c r="AG56" s="13"/>
-      <c r="AH56" s="13"/>
-      <c r="AI56" s="13"/>
-      <c r="AJ56" s="13"/>
-      <c r="AK56" s="13"/>
-      <c r="AL56" s="13"/>
-      <c r="AM56" s="13"/>
-      <c r="AN56" s="13"/>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="s">
+        <v>539</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="12"/>
       <c r="F62" s="13"/>
@@ -3744,20 +3775,26 @@
       <c r="AM62" s="13"/>
       <c r="AN62" s="13"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" t="s">
+        <v>540</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="12"/>
+      <c r="D63" t="s">
+        <v>542</v>
+      </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
+      <c r="J63" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
@@ -3788,58 +3825,7 @@
       <c r="AL63" s="13"/>
       <c r="AM63" s="13"/>
       <c r="AN63" s="13"/>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>542</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="D64" t="s">
-        <v>544</v>
-      </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="13"/>
-      <c r="AC64" s="13"/>
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="13"/>
-      <c r="AF64" s="13"/>
-      <c r="AG64" s="13"/>
-      <c r="AH64" s="13"/>
-      <c r="AI64" s="13"/>
-      <c r="AJ64" s="13"/>
-      <c r="AK64" s="13"/>
-      <c r="AL64" s="13"/>
-      <c r="AM64" s="13"/>
-      <c r="AN64" s="13"/>
-      <c r="AO64" s="13"/>
+      <c r="AO63" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3847,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,18 +3841,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3877,16 +3863,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>9</v>
@@ -3895,495 +3881,495 @@
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="3" t="s">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G18" s="3" t="s">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G19" s="3" t="s">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G20" s="3" t="s">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E21" s="3" t="s">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
@@ -4392,913 +4378,913 @@
         <v>19</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G24" s="3" t="s">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="H25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F25" s="3" t="s">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="H26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="H28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G28" s="3" t="s">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="H30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G30" s="3" t="s">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="H31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G31" s="3" t="s">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="H32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G32" s="3" t="s">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="H33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G33" s="3" t="s">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="F34" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="H34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G34" s="3" t="s">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="H35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="G35" s="3" t="s">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D36" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="H37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="G37" s="3" t="s">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="H38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G38" s="3" t="s">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="H39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G39" s="3" t="s">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="H40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G40" s="3" t="s">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D41" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I41" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="H42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F42" s="3" t="s">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>549</v>
+      </c>
+      <c r="C43" t="s">
+        <v>548</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" t="s">
+        <v>376</v>
+      </c>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>551</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E44" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G43" t="s">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="H43" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="C45" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="F45" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="H45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G45" s="3" t="s">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="H46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="G46" s="3" t="s">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="C47" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="H48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="G48" s="3" t="s">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="H50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="G50" s="3" t="s">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="3" t="s">
+      <c r="C51" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="H52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G52" s="3" t="s">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="C53" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="F54" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="H54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="G54" s="3" t="s">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>422</v>
-      </c>
       <c r="C55" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D55" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I55" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="H56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="G56" s="3" t="s">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I56" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="H57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="G57" s="3" t="s">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="H58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="G58" s="3" t="s">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="H59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="G59" s="3" t="s">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="H60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="G60" s="3" t="s">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="H61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G61" s="3" t="s">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="H62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5307,7 +5293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5315,54 +5301,54 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -5371,24 +5357,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5399,620 +5385,620 @@
         <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C4" t="s">
         <v>555</v>
       </c>
-      <c r="C2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>486</v>
       </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C5" t="s">
         <v>556</v>
       </c>
-      <c r="C3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>487</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C6" t="s">
         <v>557</v>
       </c>
-      <c r="C4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>488</v>
       </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" t="s">
         <v>558</v>
       </c>
-      <c r="C5" t="s">
-        <v>635</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>489</v>
       </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C8" t="s">
         <v>559</v>
       </c>
-      <c r="C6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>490</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C9" t="s">
         <v>560</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C10" t="s">
+        <v>561</v>
+      </c>
+      <c r="D10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>619</v>
+      </c>
+      <c r="C12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>658</v>
+      </c>
+      <c r="C13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D13" t="s">
+        <v>494</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>637</v>
       </c>
-      <c r="D7" t="s">
-        <v>491</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C8" t="s">
-        <v>638</v>
-      </c>
-      <c r="D8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>562</v>
-      </c>
-      <c r="C9" t="s">
-        <v>639</v>
-      </c>
-      <c r="D9" t="s">
-        <v>493</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
+        <v>565</v>
+      </c>
+      <c r="D14" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>659</v>
+      </c>
+      <c r="C15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>660</v>
+      </c>
+      <c r="C16" t="s">
+        <v>567</v>
+      </c>
+      <c r="D16" t="s">
+        <v>497</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>661</v>
+      </c>
+      <c r="C17" t="s">
+        <v>568</v>
+      </c>
+      <c r="D17" t="s">
+        <v>498</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>662</v>
+      </c>
+      <c r="C18" t="s">
+        <v>569</v>
+      </c>
+      <c r="D18" t="s">
+        <v>499</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>663</v>
+      </c>
+      <c r="C19" t="s">
+        <v>570</v>
+      </c>
+      <c r="D19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>664</v>
+      </c>
+      <c r="C20" t="s">
+        <v>571</v>
+      </c>
+      <c r="D20" t="s">
+        <v>501</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>665</v>
+      </c>
+      <c r="C21" t="s">
+        <v>572</v>
+      </c>
+      <c r="D21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>666</v>
+      </c>
+      <c r="C22" t="s">
+        <v>573</v>
+      </c>
+      <c r="D22" t="s">
+        <v>503</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>667</v>
+      </c>
+      <c r="C23" t="s">
+        <v>574</v>
+      </c>
+      <c r="D23" t="s">
+        <v>504</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>668</v>
+      </c>
+      <c r="C24" t="s">
+        <v>575</v>
+      </c>
+      <c r="D24" t="s">
+        <v>505</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>669</v>
+      </c>
+      <c r="C25" t="s">
+        <v>576</v>
+      </c>
+      <c r="D25" t="s">
+        <v>506</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>670</v>
+      </c>
+      <c r="C26" t="s">
+        <v>577</v>
+      </c>
+      <c r="D26" t="s">
+        <v>507</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>671</v>
+      </c>
+      <c r="C27" t="s">
+        <v>578</v>
+      </c>
+      <c r="D27" t="s">
+        <v>508</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>672</v>
+      </c>
+      <c r="C28" t="s">
+        <v>579</v>
+      </c>
+      <c r="D28" t="s">
+        <v>509</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>673</v>
+      </c>
+      <c r="C29" t="s">
+        <v>580</v>
+      </c>
+      <c r="D29" t="s">
+        <v>510</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>642</v>
+      </c>
+      <c r="C30" t="s">
+        <v>581</v>
+      </c>
+      <c r="D30" t="s">
+        <v>511</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>674</v>
+      </c>
+      <c r="C31" t="s">
+        <v>582</v>
+      </c>
+      <c r="D31" t="s">
+        <v>512</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>629</v>
+      </c>
+      <c r="C32" t="s">
+        <v>583</v>
+      </c>
+      <c r="D32" t="s">
+        <v>513</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>675</v>
+      </c>
+      <c r="C33" t="s">
+        <v>584</v>
+      </c>
+      <c r="D33" t="s">
+        <v>514</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>645</v>
+      </c>
+      <c r="C34" t="s">
+        <v>585</v>
+      </c>
+      <c r="D34" t="s">
+        <v>515</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>648</v>
+      </c>
+      <c r="C35" t="s">
+        <v>586</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>618</v>
+      </c>
+      <c r="C36" t="s">
+        <v>587</v>
+      </c>
+      <c r="D36" t="s">
+        <v>516</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>647</v>
+      </c>
+      <c r="C37" t="s">
+        <v>588</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>644</v>
+      </c>
+      <c r="C38" t="s">
+        <v>589</v>
+      </c>
+      <c r="D38" t="s">
+        <v>517</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>676</v>
+      </c>
+      <c r="C39" t="s">
+        <v>590</v>
+      </c>
+      <c r="D39" t="s">
+        <v>518</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>649</v>
+      </c>
+      <c r="C40" t="s">
+        <v>591</v>
+      </c>
+      <c r="D40" t="s">
+        <v>519</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>677</v>
+      </c>
+      <c r="C41" t="s">
+        <v>592</v>
+      </c>
+      <c r="D41" t="s">
+        <v>520</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>678</v>
+      </c>
+      <c r="C42" t="s">
+        <v>593</v>
+      </c>
+      <c r="D42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>679</v>
+      </c>
+      <c r="C43" t="s">
+        <v>594</v>
+      </c>
+      <c r="D43" t="s">
+        <v>522</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>640</v>
       </c>
-      <c r="D10" t="s">
-        <v>494</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>564</v>
-      </c>
-      <c r="C11" t="s">
-        <v>641</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>565</v>
-      </c>
-      <c r="C12" t="s">
-        <v>642</v>
-      </c>
-      <c r="D12" t="s">
-        <v>495</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>566</v>
-      </c>
-      <c r="C13" t="s">
-        <v>643</v>
-      </c>
-      <c r="D13" t="s">
-        <v>496</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C14" t="s">
-        <v>644</v>
-      </c>
-      <c r="D14" t="s">
-        <v>497</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>568</v>
-      </c>
-      <c r="C15" t="s">
-        <v>645</v>
-      </c>
-      <c r="D15" t="s">
-        <v>498</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>569</v>
-      </c>
-      <c r="C16" t="s">
-        <v>646</v>
-      </c>
-      <c r="D16" t="s">
-        <v>499</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>570</v>
-      </c>
-      <c r="C17" t="s">
-        <v>647</v>
-      </c>
-      <c r="D17" t="s">
-        <v>500</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>571</v>
-      </c>
-      <c r="C18" t="s">
-        <v>648</v>
-      </c>
-      <c r="D18" t="s">
-        <v>501</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>572</v>
-      </c>
-      <c r="C19" t="s">
-        <v>649</v>
-      </c>
-      <c r="D19" t="s">
-        <v>502</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>573</v>
-      </c>
-      <c r="C20" t="s">
-        <v>650</v>
-      </c>
-      <c r="D20" t="s">
-        <v>503</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>574</v>
-      </c>
-      <c r="C21" t="s">
-        <v>651</v>
-      </c>
-      <c r="D21" t="s">
-        <v>504</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>575</v>
-      </c>
-      <c r="C22" t="s">
-        <v>652</v>
-      </c>
-      <c r="D22" t="s">
-        <v>505</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>576</v>
-      </c>
-      <c r="C23" t="s">
-        <v>653</v>
-      </c>
-      <c r="D23" t="s">
-        <v>506</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>577</v>
-      </c>
-      <c r="C24" t="s">
-        <v>654</v>
-      </c>
-      <c r="D24" t="s">
-        <v>507</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C25" t="s">
-        <v>655</v>
-      </c>
-      <c r="D25" t="s">
-        <v>508</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>579</v>
-      </c>
-      <c r="C26" t="s">
-        <v>656</v>
-      </c>
-      <c r="D26" t="s">
-        <v>509</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>580</v>
-      </c>
-      <c r="C27" t="s">
-        <v>657</v>
-      </c>
-      <c r="D27" t="s">
-        <v>510</v>
-      </c>
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>581</v>
-      </c>
-      <c r="C28" t="s">
-        <v>658</v>
-      </c>
-      <c r="D28" t="s">
-        <v>511</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>582</v>
-      </c>
-      <c r="C29" t="s">
-        <v>659</v>
-      </c>
-      <c r="D29" t="s">
-        <v>512</v>
-      </c>
-      <c r="E29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>583</v>
-      </c>
-      <c r="C30" t="s">
-        <v>660</v>
-      </c>
-      <c r="D30" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>584</v>
-      </c>
-      <c r="C31" t="s">
-        <v>661</v>
-      </c>
-      <c r="D31" t="s">
-        <v>514</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>585</v>
-      </c>
-      <c r="C32" t="s">
-        <v>662</v>
-      </c>
-      <c r="D32" t="s">
-        <v>515</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>586</v>
-      </c>
-      <c r="C33" t="s">
-        <v>663</v>
-      </c>
-      <c r="D33" t="s">
-        <v>516</v>
-      </c>
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>587</v>
-      </c>
-      <c r="C34" t="s">
-        <v>664</v>
-      </c>
-      <c r="D34" t="s">
-        <v>517</v>
-      </c>
-      <c r="E34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>588</v>
-      </c>
-      <c r="C35" t="s">
-        <v>665</v>
-      </c>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>589</v>
-      </c>
-      <c r="C36" t="s">
-        <v>666</v>
-      </c>
-      <c r="D36" t="s">
-        <v>518</v>
-      </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>590</v>
-      </c>
-      <c r="C37" t="s">
-        <v>667</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>591</v>
-      </c>
-      <c r="C38" t="s">
-        <v>668</v>
-      </c>
-      <c r="D38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>592</v>
-      </c>
-      <c r="C39" t="s">
-        <v>669</v>
-      </c>
-      <c r="D39" t="s">
-        <v>520</v>
-      </c>
-      <c r="E39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>593</v>
-      </c>
-      <c r="C40" t="s">
-        <v>670</v>
-      </c>
-      <c r="D40" t="s">
-        <v>521</v>
-      </c>
-      <c r="E40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>594</v>
-      </c>
-      <c r="C41" t="s">
-        <v>671</v>
-      </c>
-      <c r="D41" t="s">
-        <v>522</v>
-      </c>
-      <c r="E41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="C44" t="s">
         <v>595</v>
       </c>
-      <c r="C42" t="s">
-        <v>672</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>523</v>
       </c>
-      <c r="E42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>631</v>
+      </c>
+      <c r="C45" t="s">
         <v>596</v>
-      </c>
-      <c r="C43" t="s">
-        <v>673</v>
-      </c>
-      <c r="D43" t="s">
-        <v>524</v>
-      </c>
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>597</v>
-      </c>
-      <c r="C44" t="s">
-        <v>674</v>
-      </c>
-      <c r="D44" t="s">
-        <v>525</v>
-      </c>
-      <c r="E44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>598</v>
-      </c>
-      <c r="C45" t="s">
-        <v>675</v>
       </c>
       <c r="D45" t="s">
         <v>87</v>
@@ -6021,54 +6007,54 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>617</v>
+      </c>
+      <c r="C46" t="s">
+        <v>597</v>
+      </c>
+      <c r="D46" t="s">
+        <v>524</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>650</v>
+      </c>
+      <c r="C47" t="s">
+        <v>598</v>
+      </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>680</v>
+      </c>
+      <c r="C48" t="s">
         <v>599</v>
       </c>
-      <c r="C46" t="s">
-        <v>676</v>
-      </c>
-      <c r="D46" t="s">
-        <v>526</v>
-      </c>
-      <c r="E46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+      <c r="D48" t="s">
+        <v>525</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>681</v>
+      </c>
+      <c r="C49" t="s">
         <v>600</v>
-      </c>
-      <c r="C47" t="s">
-        <v>677</v>
-      </c>
-      <c r="D47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>601</v>
-      </c>
-      <c r="C48" t="s">
-        <v>678</v>
-      </c>
-      <c r="D48" t="s">
-        <v>527</v>
-      </c>
-      <c r="E48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>602</v>
-      </c>
-      <c r="C49" t="s">
-        <v>679</v>
       </c>
       <c r="D49" t="s">
         <v>107</v>
@@ -6077,82 +6063,82 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>625</v>
+      </c>
+      <c r="C50" t="s">
+        <v>601</v>
+      </c>
+      <c r="D50" t="s">
+        <v>526</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>682</v>
+      </c>
+      <c r="C51" t="s">
+        <v>602</v>
+      </c>
+      <c r="D51" t="s">
+        <v>527</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>683</v>
+      </c>
+      <c r="C52" t="s">
         <v>603</v>
       </c>
-      <c r="C50" t="s">
-        <v>680</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>528</v>
       </c>
-      <c r="E50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>684</v>
+      </c>
+      <c r="C53" t="s">
         <v>604</v>
       </c>
-      <c r="C51" t="s">
-        <v>681</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>529</v>
       </c>
-      <c r="E51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>685</v>
+      </c>
+      <c r="C54" t="s">
         <v>605</v>
       </c>
-      <c r="C52" t="s">
-        <v>682</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>530</v>
       </c>
-      <c r="E52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C55" t="s">
         <v>606</v>
-      </c>
-      <c r="C53" t="s">
-        <v>683</v>
-      </c>
-      <c r="D53" t="s">
-        <v>531</v>
-      </c>
-      <c r="E53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>607</v>
-      </c>
-      <c r="C54" t="s">
-        <v>684</v>
-      </c>
-      <c r="D54" t="s">
-        <v>532</v>
-      </c>
-      <c r="E54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>608</v>
-      </c>
-      <c r="C55" t="s">
-        <v>685</v>
       </c>
       <c r="D55" t="s">
         <v>104</v>
@@ -6161,54 +6147,54 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>628</v>
+      </c>
+      <c r="C56" t="s">
+        <v>607</v>
+      </c>
+      <c r="D56" t="s">
+        <v>531</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>687</v>
+      </c>
+      <c r="C57" t="s">
+        <v>608</v>
+      </c>
+      <c r="D57" t="s">
+        <v>532</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>624</v>
+      </c>
+      <c r="C58" t="s">
         <v>609</v>
       </c>
-      <c r="C56" t="s">
-        <v>686</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>533</v>
       </c>
-      <c r="E56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>688</v>
+      </c>
+      <c r="C59" t="s">
         <v>610</v>
-      </c>
-      <c r="C57" t="s">
-        <v>687</v>
-      </c>
-      <c r="D57" t="s">
-        <v>534</v>
-      </c>
-      <c r="E57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>611</v>
-      </c>
-      <c r="C58" t="s">
-        <v>688</v>
-      </c>
-      <c r="D58" t="s">
-        <v>535</v>
-      </c>
-      <c r="E58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>612</v>
-      </c>
-      <c r="C59" t="s">
-        <v>689</v>
       </c>
       <c r="D59" t="s">
         <v>110</v>
@@ -6217,43 +6203,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>646</v>
+      </c>
+      <c r="C60" t="s">
+        <v>611</v>
+      </c>
+      <c r="D60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>689</v>
+      </c>
+      <c r="C61" t="s">
+        <v>612</v>
+      </c>
+      <c r="D61" t="s">
+        <v>534</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>690</v>
+      </c>
+      <c r="C62" t="s">
         <v>613</v>
       </c>
-      <c r="C60" t="s">
-        <v>690</v>
-      </c>
-      <c r="D60" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>614</v>
-      </c>
-      <c r="C61" t="s">
-        <v>691</v>
-      </c>
-      <c r="D61" t="s">
-        <v>536</v>
-      </c>
-      <c r="E61" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>615</v>
-      </c>
-      <c r="C62" t="s">
-        <v>692</v>
-      </c>
       <c r="D62" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E62" t="s">
         <v>41</v>
@@ -6265,7 +6251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6273,19 +6259,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6293,39 +6279,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="J1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>480</v>
       </c>
       <c r="D2" s="8">
         <v>-1000</v>
@@ -6334,19 +6320,19 @@
         <v>1000</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/tutorial/smallYeastBad2.xlsx
+++ b/tutorial/smallYeastBad2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\RAVEN\tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4A3DBC11-3072-4E30-A7F8-7D8647D9EEA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB7083-9038-4C00-A9AA-1B32E652987C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="435" windowWidth="28800" windowHeight="16455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
     <sheet name="METS" sheetId="2" r:id="rId2"/>
     <sheet name="COMPS" sheetId="3" r:id="rId3"/>
     <sheet name="GENES" sheetId="4" r:id="rId4"/>
-    <sheet name="MODEL" sheetId="5" r:id="rId5"/>
+    <sheet name="MODEL" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="687">
   <si>
     <t>#</t>
   </si>
@@ -1441,9 +1441,6 @@
     <t>SHORT NAME</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
     <t>DEFAULT LOWER</t>
   </si>
   <si>
@@ -1471,18 +1468,6 @@
     <t>Central carbon metabolism for yeast</t>
   </si>
   <si>
-    <t>Rasmus</t>
-  </si>
-  <si>
-    <t>Agren</t>
-  </si>
-  <si>
-    <t>rasmus.agren@scilifelab.se</t>
-  </si>
-  <si>
-    <t>Chalmers University of Technology</t>
-  </si>
-  <si>
     <t>For use in the RAVEN workshop</t>
   </si>
   <si>
@@ -2105,6 +2090,9 @@
   </si>
   <si>
     <t>YPR074C</t>
+  </si>
+  <si>
+    <t>taxonomy/559292</t>
   </si>
 </sst>
 </file>
@@ -2118,12 +2106,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2173,6 +2155,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2193,12 +2180,12 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2210,20 +2197,20 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2505,8 +2492,8 @@
   <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13:F52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,89 +2563,89 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-    </row>
-    <row r="3" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="2" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+    </row>
+    <row r="3" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
+      <c r="B3" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -2670,6 +2657,12 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2684,6 +2677,12 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2698,6 +2697,12 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2712,6 +2717,12 @@
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2726,6 +2737,12 @@
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2740,6 +2757,12 @@
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2754,94 +2777,100 @@
       <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
+      <c r="B12" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -2853,8 +2882,14 @@
       <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>614</v>
+      <c r="F13" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1000</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>41</v>
@@ -2870,8 +2905,14 @@
       <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>615</v>
+      <c r="F14" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="G14" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>41</v>
@@ -2887,8 +2928,14 @@
       <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>616</v>
+      <c r="F15" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
@@ -2904,8 +2951,14 @@
       <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>617</v>
+      <c r="F16" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>41</v>
@@ -2919,10 +2972,16 @@
         <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>618</v>
+        <v>546</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="G17" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>41</v>
@@ -2936,10 +2995,16 @@
         <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>619</v>
+        <v>547</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="G18" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>41</v>
@@ -2955,8 +3020,14 @@
       <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>620</v>
+      <c r="F19" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="G19" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>41</v>
@@ -2972,8 +3043,14 @@
       <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>621</v>
+      <c r="F20" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="G20" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>41</v>
@@ -2989,8 +3066,14 @@
       <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>622</v>
+      <c r="F21" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="G21" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>41</v>
@@ -3006,8 +3089,14 @@
       <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>623</v>
+      <c r="F22" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="G22" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>41</v>
@@ -3023,8 +3112,14 @@
       <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>624</v>
+      <c r="F23" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>41</v>
@@ -3038,10 +3133,16 @@
         <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>625</v>
+        <v>542</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1000</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>41</v>
@@ -3057,8 +3158,14 @@
       <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>626</v>
+      <c r="F25" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>41</v>
@@ -3074,8 +3181,14 @@
       <c r="D26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>627</v>
+      <c r="F26" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>41</v>
@@ -3091,8 +3204,14 @@
       <c r="D27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>628</v>
+      <c r="F27" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="G27" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>41</v>
@@ -3108,8 +3227,14 @@
       <c r="D28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>629</v>
+      <c r="F28" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="G28" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>41</v>
@@ -3125,8 +3250,14 @@
       <c r="D29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>630</v>
+      <c r="F29" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>41</v>
@@ -3142,8 +3273,14 @@
       <c r="D30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>631</v>
+      <c r="F30" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="G30" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H30">
+        <v>1000</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>41</v>
@@ -3159,8 +3296,14 @@
       <c r="D31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>630</v>
+      <c r="F31" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="G31" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H31">
+        <v>1000</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>41</v>
@@ -3176,8 +3319,14 @@
       <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>632</v>
+      <c r="F32" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1000</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>41</v>
@@ -3193,8 +3342,14 @@
       <c r="D33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>633</v>
+      <c r="F33" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1000</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>41</v>
@@ -3210,8 +3365,14 @@
       <c r="D34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>634</v>
+      <c r="F34" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1000</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>41</v>
@@ -3227,8 +3388,14 @@
       <c r="D35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>634</v>
+      <c r="F35" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1000</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>41</v>
@@ -3244,8 +3411,14 @@
       <c r="D36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>635</v>
+      <c r="F36" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1000</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>41</v>
@@ -3261,8 +3434,14 @@
       <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>635</v>
+      <c r="F37" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1000</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>41</v>
@@ -3278,8 +3457,14 @@
       <c r="D38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>636</v>
+      <c r="F38" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1000</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>41</v>
@@ -3295,8 +3480,14 @@
       <c r="D39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>637</v>
+      <c r="F39" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1000</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>117</v>
@@ -3312,8 +3503,14 @@
       <c r="D40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>638</v>
+      <c r="F40" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1000</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>117</v>
@@ -3329,8 +3526,14 @@
       <c r="D41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>639</v>
+      <c r="F41" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1000</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>117</v>
@@ -3346,8 +3549,14 @@
       <c r="D42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>640</v>
+      <c r="F42" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="G42" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H42">
+        <v>1000</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>117</v>
@@ -3363,8 +3572,14 @@
       <c r="D43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>641</v>
+      <c r="F43" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1000</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>117</v>
@@ -3380,8 +3595,14 @@
       <c r="D44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>642</v>
+      <c r="F44" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1000</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>117</v>
@@ -3397,8 +3618,14 @@
       <c r="D45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>643</v>
+      <c r="F45" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G45" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H45">
+        <v>1000</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>117</v>
@@ -3414,8 +3641,14 @@
       <c r="D46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>644</v>
+      <c r="F46" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>117</v>
@@ -3431,8 +3664,14 @@
       <c r="D47" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>645</v>
+      <c r="F47" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1000</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>117</v>
@@ -3448,8 +3687,14 @@
       <c r="D48" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>646</v>
+      <c r="F48" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="G48" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H48">
+        <v>1000</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>117</v>
@@ -3465,8 +3710,14 @@
       <c r="D49" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>647</v>
+      <c r="F49" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="G49" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H49">
+        <v>1000</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>117</v>
@@ -3482,8 +3733,14 @@
       <c r="D50" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>648</v>
+      <c r="F50" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1000</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>117</v>
@@ -3499,8 +3756,14 @@
       <c r="D51" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>649</v>
+      <c r="F51" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1000</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>117</v>
@@ -3517,7 +3780,13 @@
         <v>156</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1000</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>117</v>
@@ -3533,93 +3802,99 @@
       <c r="D53" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="G53" s="12">
+        <v>-1000</v>
+      </c>
+      <c r="H53">
+        <v>1000</v>
+      </c>
       <c r="J53" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="C54" s="13"/>
-      <c r="D54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="13"/>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="13"/>
-      <c r="AE54" s="13"/>
-      <c r="AF54" s="13"/>
-      <c r="AG54" s="13"/>
-      <c r="AH54" s="13"/>
-      <c r="AI54" s="13"/>
-      <c r="AJ54" s="13"/>
-      <c r="AK54" s="13"/>
-      <c r="AL54" s="13"/>
-      <c r="AM54" s="13"/>
-      <c r="AN54" s="13"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="13"/>
-      <c r="AF55" s="13"/>
-      <c r="AG55" s="13"/>
-      <c r="AH55" s="13"/>
-      <c r="AI55" s="13"/>
-      <c r="AJ55" s="13"/>
-      <c r="AK55" s="13"/>
-      <c r="AL55" s="13"/>
-      <c r="AM55" s="13"/>
-      <c r="AN55" s="13"/>
+      <c r="B55" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
@@ -3631,6 +3906,12 @@
       <c r="D56" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1000</v>
+      </c>
       <c r="J56" s="1" t="s">
         <v>41</v>
       </c>
@@ -3645,6 +3926,12 @@
       <c r="D57" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="G57" s="12">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1000</v>
+      </c>
       <c r="J57" s="1" t="s">
         <v>117</v>
       </c>
@@ -3659,6 +3946,12 @@
       <c r="D58" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1000</v>
+      </c>
       <c r="J58" s="1" t="s">
         <v>117</v>
       </c>
@@ -3673,6 +3966,12 @@
       <c r="D59" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1000</v>
+      </c>
       <c r="J59" s="1" t="s">
         <v>117</v>
       </c>
@@ -3687,145 +3986,151 @@
       <c r="D60" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1000</v>
+      </c>
       <c r="J60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="C61" s="13"/>
-      <c r="D61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="13"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="13"/>
-      <c r="AG61" s="13"/>
-      <c r="AH61" s="13"/>
-      <c r="AI61" s="13"/>
-      <c r="AJ61" s="13"/>
-      <c r="AK61" s="13"/>
-      <c r="AL61" s="13"/>
-      <c r="AM61" s="13"/>
-      <c r="AN61" s="13"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="12"/>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="12"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
-      <c r="AA62" s="13"/>
-      <c r="AB62" s="13"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="13"/>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
-      <c r="AH62" s="13"/>
-      <c r="AI62" s="13"/>
-      <c r="AJ62" s="13"/>
-      <c r="AK62" s="13"/>
-      <c r="AL62" s="13"/>
-      <c r="AM62" s="13"/>
-      <c r="AN62" s="13"/>
+      <c r="B62" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>540</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>541</v>
+        <v>535</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="D63" t="s">
-        <v>542</v>
-      </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
-      <c r="AA63" s="13"/>
-      <c r="AB63" s="13"/>
-      <c r="AC63" s="13"/>
-      <c r="AD63" s="13"/>
-      <c r="AE63" s="13"/>
-      <c r="AF63" s="13"/>
-      <c r="AG63" s="13"/>
-      <c r="AH63" s="13"/>
-      <c r="AI63" s="13"/>
-      <c r="AJ63" s="13"/>
-      <c r="AK63" s="13"/>
-      <c r="AL63" s="13"/>
-      <c r="AM63" s="13"/>
-      <c r="AN63" s="13"/>
-      <c r="AO63" s="13"/>
+        <v>537</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3886,1039 +4191,1042 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>180</v>
+        <v>227</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>249</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>195</v>
+        <v>279</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>198</v>
+        <v>290</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>203</v>
+        <v>335</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>204</v>
+        <v>336</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>205</v>
+        <v>337</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>207</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>366</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>209</v>
+        <v>361</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>213</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>546</v>
+      <c r="B8" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="3" t="b">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>247</v>
+      <c r="B15" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" s="3" t="b">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>279</v>
+        <v>249</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="3" t="b">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D36" s="3" t="b">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>117</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D41" s="3" t="b">
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="3" t="s">
+      <c r="H43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>549</v>
-      </c>
-      <c r="C43" t="s">
-        <v>548</v>
-      </c>
-      <c r="E43" s="8" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>544</v>
+      </c>
+      <c r="C44" t="s">
+        <v>543</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>376</v>
       </c>
-      <c r="H43" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>382</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>384</v>
@@ -4933,38 +5241,38 @@
         <v>387</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>392</v>
@@ -4979,38 +5287,38 @@
         <v>395</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>400</v>
@@ -5025,38 +5333,38 @@
         <v>403</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>408</v>
@@ -5071,45 +5379,42 @@
         <v>411</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D55" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="E55" s="3" t="s">
         <v>417</v>
       </c>
@@ -5120,10 +5425,10 @@
         <v>418</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -5348,7 +5653,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -5360,9 +5665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B62"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5393,13 +5698,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -5407,13 +5712,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -5421,13 +5726,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -5435,13 +5740,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -5449,13 +5754,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D6" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
@@ -5463,13 +5768,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -5477,13 +5782,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -5491,13 +5796,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C9" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D9" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -5505,13 +5810,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C10" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D10" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
@@ -5519,10 +5824,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C11" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D11" t="s">
         <v>127</v>
@@ -5533,13 +5838,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E12" t="s">
         <v>41</v>
@@ -5547,13 +5852,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C13" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
@@ -5561,13 +5866,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C14" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D14" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -5575,13 +5880,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C15" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D15" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
@@ -5589,13 +5894,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C16" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -5603,13 +5908,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D17" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E17" t="s">
         <v>41</v>
@@ -5617,13 +5922,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C18" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D18" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
@@ -5631,13 +5936,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C19" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D19" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E19" t="s">
         <v>41</v>
@@ -5645,13 +5950,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C20" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D20" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
@@ -5659,13 +5964,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C21" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D21" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
@@ -5673,13 +5978,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C22" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D22" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
@@ -5687,13 +5992,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C23" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
@@ -5701,13 +6006,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C24" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D24" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
@@ -5715,13 +6020,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C25" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D25" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
@@ -5729,13 +6034,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C26" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D26" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -5743,13 +6048,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D27" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E27" t="s">
         <v>41</v>
@@ -5757,13 +6062,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C28" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D28" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
@@ -5771,13 +6076,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C29" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D29" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
@@ -5785,13 +6090,13 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C30" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D30" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
@@ -5799,13 +6104,13 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C31" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D31" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
@@ -5813,13 +6118,13 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C32" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D32" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E32" t="s">
         <v>41</v>
@@ -5827,13 +6132,13 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C33" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D33" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
@@ -5841,13 +6146,13 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C34" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D34" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E34" t="s">
         <v>41</v>
@@ -5855,10 +6160,10 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C35" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D35" t="s">
         <v>148</v>
@@ -5869,13 +6174,13 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C36" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D36" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
@@ -5883,10 +6188,10 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C37" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D37" t="s">
         <v>145</v>
@@ -5897,13 +6202,13 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C38" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D38" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
@@ -5911,13 +6216,13 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C39" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D39" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -5925,13 +6230,13 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C40" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D40" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
@@ -5939,13 +6244,13 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C41" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D41" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E41" t="s">
         <v>41</v>
@@ -5953,13 +6258,13 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C42" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D42" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
@@ -5967,13 +6272,13 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C43" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D43" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
@@ -5981,13 +6286,13 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C44" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D44" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E44" t="s">
         <v>41</v>
@@ -5995,10 +6300,10 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C45" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D45" t="s">
         <v>87</v>
@@ -6009,13 +6314,13 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C46" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D46" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E46" t="s">
         <v>41</v>
@@ -6023,10 +6328,10 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C47" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D47" t="s">
         <v>154</v>
@@ -6037,13 +6342,13 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C48" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D48" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E48" t="s">
         <v>41</v>
@@ -6051,10 +6356,10 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C49" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D49" t="s">
         <v>107</v>
@@ -6065,13 +6370,13 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C50" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D50" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E50" t="s">
         <v>41</v>
@@ -6079,13 +6384,13 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C51" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D51" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E51" t="s">
         <v>41</v>
@@ -6093,13 +6398,13 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C52" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D52" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E52" t="s">
         <v>41</v>
@@ -6107,13 +6412,13 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C53" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D53" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E53" t="s">
         <v>41</v>
@@ -6121,13 +6426,13 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C54" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D54" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E54" t="s">
         <v>41</v>
@@ -6135,10 +6440,10 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C55" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D55" t="s">
         <v>104</v>
@@ -6149,13 +6454,13 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C56" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D56" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E56" t="s">
         <v>41</v>
@@ -6163,13 +6468,13 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C57" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D57" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E57" t="s">
         <v>41</v>
@@ -6177,13 +6482,13 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C58" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D58" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E58" t="s">
         <v>41</v>
@@ -6191,10 +6496,10 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C59" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D59" t="s">
         <v>110</v>
@@ -6205,10 +6510,10 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C60" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -6219,13 +6524,13 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C61" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D61" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E61" t="s">
         <v>41</v>
@@ -6233,13 +6538,13 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C62" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D62" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E62" t="s">
         <v>41</v>
@@ -6251,15 +6556,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29146262-77FD-495B-817B-07AD3C4223C8}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -6267,72 +6572,57 @@
     <col min="4" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" t="s">
+        <v>686</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="D2" s="8">
-        <v>-1000</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>483</v>
       </c>
     </row>
   </sheetData>
